--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Lgr6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,45 +537,45 @@
         <v>7.522864</v>
       </c>
       <c r="I2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.044174</v>
+        <v>0.4426103333333333</v>
       </c>
       <c r="N2">
-        <v>0.132522</v>
+        <v>1.327831</v>
       </c>
       <c r="O2">
-        <v>0.1464768494467963</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1464768494467963</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1107716647786667</v>
+        <v>1.109899114220444</v>
       </c>
       <c r="R2">
-        <v>0.9969449830080001</v>
+        <v>9.989092027984</v>
       </c>
       <c r="S2">
-        <v>0.1455947687954129</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="T2">
-        <v>0.1455947687954129</v>
+        <v>0.9300694554254023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -596,170 +593,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.507621333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H3">
-        <v>7.522864</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I3">
-        <v>0.9939780200440224</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J3">
-        <v>0.9939780200440224</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2574026666666667</v>
+        <v>0.4426103333333333</v>
       </c>
       <c r="N3">
-        <v>0.772208</v>
+        <v>1.327831</v>
       </c>
       <c r="O3">
-        <v>0.8535231505532037</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8535231505532037</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.6454684181902222</v>
+        <v>0.08345167022477777</v>
       </c>
       <c r="R3">
-        <v>5.809215763712</v>
+        <v>0.7510650320229999</v>
       </c>
       <c r="S3">
-        <v>0.8483832512486095</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="T3">
-        <v>0.8483832512486095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.01519233333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.045577</v>
-      </c>
-      <c r="I4">
-        <v>0.006021979955977724</v>
-      </c>
-      <c r="J4">
-        <v>0.006021979955977723</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.044174</v>
-      </c>
-      <c r="N4">
-        <v>0.132522</v>
-      </c>
-      <c r="O4">
-        <v>0.1464768494467963</v>
-      </c>
-      <c r="P4">
-        <v>0.1464768494467963</v>
-      </c>
-      <c r="Q4">
-        <v>0.0006711061326666667</v>
-      </c>
-      <c r="R4">
-        <v>0.006039955194</v>
-      </c>
-      <c r="S4">
-        <v>0.000882080651383374</v>
-      </c>
-      <c r="T4">
-        <v>0.0008820806513833739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.01519233333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.045577</v>
-      </c>
-      <c r="I5">
-        <v>0.006021979955977724</v>
-      </c>
-      <c r="J5">
-        <v>0.006021979955977723</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.2574026666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.772208</v>
-      </c>
-      <c r="O5">
-        <v>0.8535231505532037</v>
-      </c>
-      <c r="P5">
-        <v>0.8535231505532037</v>
-      </c>
-      <c r="Q5">
-        <v>0.003910547112888889</v>
-      </c>
-      <c r="R5">
-        <v>0.035194924016</v>
-      </c>
-      <c r="S5">
-        <v>0.00513989930459435</v>
-      </c>
-      <c r="T5">
-        <v>0.00513989930459435</v>
+        <v>0.06993054457459771</v>
       </c>
     </row>
   </sheetData>
